--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>71.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>71.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>34.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>79.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.41</v>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.41</v>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1471,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.53</v>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1509,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.39</v>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.41</v>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1756,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1908,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2979</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>010661</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信稳健聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1385</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -716,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0924</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -754,36 +770,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +870,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,26 +910,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>44.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>012256</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信丰穗一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>26.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.3099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -924,36 +976,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>30.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1116,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1028,26 +1156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2069</t>
+          <t>1.0570</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1056,36 +1184,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1094,36 +1222,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>32.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1198,26 +1326,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0570</t>
+          <t>0.2069</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.1173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +1392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.06</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,7 +1456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1368,26 +1496,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.77</t>
+          <t>33.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3335</t>
+          <t>0.3136</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1396,36 +1524,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012256</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信丰穗一年持有混合A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>33.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3099</t>
+          <t>0.0919</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1434,112 +1562,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.81</t>
+          <t>82.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信民稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>44.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012257</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信丰穗一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1604,36 +1656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>34.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1956</t>
+          <t>0.2979</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1642,36 +1694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010661</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>36.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.1385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>34.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1718,72 +1770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>79.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1797,144 +1813,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03</v>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>009100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信稳健增利混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.70</t>
+          <t>113.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>23.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1956</t>
+          <t>0.9851</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010661</t>
+          <t>009101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合C</t>
+          <t>安信稳健增利混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>84.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.86</t>
+          <t>23.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.7310</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>安信稳健聚申一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.1835</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>012702</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>安信民安回报一年持有混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>22.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,34 +825,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -900,36 +1109,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.77</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3335</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -938,36 +1147,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012256</t>
+          <t>010661</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信丰穗一年持有混合A</t>
+          <t>安信稳健聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3099</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -976,36 +1185,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.81</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1014,36 +1223,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>44.77</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1052,36 +1261,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012257</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信丰穗一年持有混合C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,22 +1363,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>44.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0570</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1184,32 +1391,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>012256</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信丰穗一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>26.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.3099</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1232,25 +1439,101 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.06</t>
+          <t>30.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1286,7 +1569,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1326,26 +1609,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2069</t>
+          <t>1.0570</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1354,36 +1637,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1392,36 +1675,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>32.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1496,26 +1779,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.2069</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1524,36 +1807,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.1173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1562,36 +1845,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1600,6 +1883,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1807,7 +2260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00288-万洲国际.xlsx
+++ b/数据整理/stocks/港股/00288-万洲国际.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.24</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -616,7 +633,801 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015979</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1045,250 +1856,6 @@
       </c>
       <c r="H11" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>35.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010661</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>35.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1353,36 +1920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.77</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3335</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1391,36 +1958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012256</t>
+          <t>010661</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信丰穗一年持有混合A</t>
+          <t>安信稳健聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>35.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3099</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1429,36 +1996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.81</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1467,36 +2034,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>44.77</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1505,36 +2072,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012257</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信丰穗一年持有混合C</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,22 +2174,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>44.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0570</t>
+          <t>0.3335</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1637,32 +2202,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>012256</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信丰穗一年持有混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>26.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>44.43</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.3099</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1685,25 +2250,101 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.06</t>
+          <t>30.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0445</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1739,7 +2380,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1779,26 +2420,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2069</t>
+          <t>1.0570</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1807,36 +2448,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>44.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1173</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1845,36 +2486,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.92</t>
+          <t>32.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1949,26 +2590,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.2069</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1977,36 +2618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.1173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2015,36 +2656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>46.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2053,6 +2694,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2258,136 +3069,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008061</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008062</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>惠升惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>